--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H2">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I2">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J2">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N2">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O2">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P2">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q2">
-        <v>109.4287442296386</v>
+        <v>122.1440285612433</v>
       </c>
       <c r="R2">
-        <v>109.4287442296386</v>
+        <v>1099.29625705119</v>
       </c>
       <c r="S2">
-        <v>0.02702667895424475</v>
+        <v>0.02838104895036145</v>
       </c>
       <c r="T2">
-        <v>0.02702667895424475</v>
+        <v>0.02838104895036146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H3">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I3">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J3">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N3">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O3">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P3">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q3">
-        <v>39.85056314733525</v>
+        <v>44.17795495275556</v>
       </c>
       <c r="R3">
-        <v>39.85056314733525</v>
+        <v>397.6015945748001</v>
       </c>
       <c r="S3">
-        <v>0.009842280325073635</v>
+        <v>0.01026506753387745</v>
       </c>
       <c r="T3">
-        <v>0.009842280325073635</v>
+        <v>0.01026506753387745</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H4">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I4">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J4">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N4">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O4">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P4">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q4">
-        <v>357.0172503551887</v>
+        <v>404.852381947805</v>
       </c>
       <c r="R4">
-        <v>357.0172503551887</v>
+        <v>3643.671437530245</v>
       </c>
       <c r="S4">
-        <v>0.08817601512659498</v>
+        <v>0.09407038072245916</v>
       </c>
       <c r="T4">
-        <v>0.08817601512659498</v>
+        <v>0.09407038072245917</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.2785596086931</v>
+        <v>15.79785166666667</v>
       </c>
       <c r="H5">
-        <v>14.2785596086931</v>
+        <v>47.39355500000001</v>
       </c>
       <c r="I5">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="J5">
-        <v>0.1346203629195329</v>
+        <v>0.1445757693628457</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N5">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O5">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P5">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q5">
-        <v>38.76994070674476</v>
+        <v>51.0389619315889</v>
       </c>
       <c r="R5">
-        <v>38.76994070674476</v>
+        <v>459.3506573843001</v>
       </c>
       <c r="S5">
-        <v>0.009575388513619571</v>
+        <v>0.01185927215614767</v>
       </c>
       <c r="T5">
-        <v>0.009575388513619571</v>
+        <v>0.01185927215614767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H6">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I6">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J6">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N6">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O6">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P6">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q6">
-        <v>564.6268052171396</v>
+        <v>575.2100398820446</v>
       </c>
       <c r="R6">
-        <v>564.6268052171396</v>
+        <v>5176.890358938402</v>
       </c>
       <c r="S6">
-        <v>0.1394513617148078</v>
+        <v>0.1336542153630232</v>
       </c>
       <c r="T6">
-        <v>0.1394513617148078</v>
+        <v>0.1336542153630232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H7">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I7">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J7">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N7">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O7">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P7">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q7">
-        <v>205.6196140637928</v>
+        <v>208.0462183015378</v>
       </c>
       <c r="R7">
-        <v>205.6196140637928</v>
+        <v>1872.41596471384</v>
       </c>
       <c r="S7">
-        <v>0.05078387159717284</v>
+        <v>0.04834104438100273</v>
       </c>
       <c r="T7">
-        <v>0.05078387159717284</v>
+        <v>0.04834104438100272</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H8">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I8">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J8">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N8">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O8">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P8">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q8">
-        <v>1842.125767727304</v>
+        <v>1906.561929466519</v>
       </c>
       <c r="R8">
-        <v>1842.125767727304</v>
+        <v>17159.05736519867</v>
       </c>
       <c r="S8">
-        <v>0.454967678448629</v>
+        <v>0.4430034614418653</v>
       </c>
       <c r="T8">
-        <v>0.454967678448629</v>
+        <v>0.4430034614418653</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>73.67403831337469</v>
+        <v>74.39645633333333</v>
       </c>
       <c r="H9">
-        <v>73.67403831337469</v>
+        <v>223.189369</v>
       </c>
       <c r="I9">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="J9">
-        <v>0.694609683840642</v>
+        <v>0.6808473164079603</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N9">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O9">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P9">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q9">
-        <v>200.0438542342168</v>
+        <v>240.3565992871045</v>
       </c>
       <c r="R9">
-        <v>200.0438542342168</v>
+        <v>2163.20939358394</v>
       </c>
       <c r="S9">
-        <v>0.04940677208003238</v>
+        <v>0.05584859522206909</v>
       </c>
       <c r="T9">
-        <v>0.04940677208003238</v>
+        <v>0.05584859522206908</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H10">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I10">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J10">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N10">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O10">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P10">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q10">
-        <v>121.435314564905</v>
+        <v>126.56708128512</v>
       </c>
       <c r="R10">
-        <v>121.435314564905</v>
+        <v>1139.10373156608</v>
       </c>
       <c r="S10">
-        <v>0.02999205815216223</v>
+        <v>0.02940877725885941</v>
       </c>
       <c r="T10">
-        <v>0.02999205815216223</v>
+        <v>0.02940877725885941</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H11">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I11">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J11">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N11">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O11">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P11">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q11">
-        <v>44.22298460475761</v>
+        <v>45.7777173504</v>
       </c>
       <c r="R11">
-        <v>44.22298460475761</v>
+        <v>411.9994561536</v>
       </c>
       <c r="S11">
-        <v>0.01092217968619961</v>
+        <v>0.01063678390389819</v>
       </c>
       <c r="T11">
-        <v>0.01092217968619961</v>
+        <v>0.01063678390389818</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H12">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I12">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J12">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N12">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O12">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P12">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q12">
-        <v>396.1893413580567</v>
+        <v>419.51280744576</v>
       </c>
       <c r="R12">
-        <v>396.1893413580567</v>
+        <v>3775.61526701184</v>
       </c>
       <c r="S12">
-        <v>0.09785072660166487</v>
+        <v>0.09747683667934587</v>
       </c>
       <c r="T12">
-        <v>0.09785072660166487</v>
+        <v>0.09747683667934587</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.8452094997702</v>
+        <v>16.36992</v>
       </c>
       <c r="H13">
-        <v>15.8452094997702</v>
+        <v>49.10976</v>
       </c>
       <c r="I13">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="J13">
-        <v>0.1493909688268854</v>
+        <v>0.1498111153557632</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N13">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O13">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P13">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q13">
-        <v>43.0237957908604</v>
+        <v>52.88717360640001</v>
       </c>
       <c r="R13">
-        <v>43.0237957908604</v>
+        <v>475.9845624576001</v>
       </c>
       <c r="S13">
-        <v>0.01062600438685863</v>
+        <v>0.01228871751365971</v>
       </c>
       <c r="T13">
-        <v>0.01062600438685863</v>
+        <v>0.01228871751365971</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H14">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I14">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J14">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.66385036226035</v>
+        <v>7.731686</v>
       </c>
       <c r="N14">
-        <v>7.66385036226035</v>
+        <v>23.195058</v>
       </c>
       <c r="O14">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="P14">
-        <v>0.2007621905639899</v>
+        <v>0.1963057092861306</v>
       </c>
       <c r="Q14">
-        <v>17.37831756263643</v>
+        <v>20.92324639370533</v>
       </c>
       <c r="R14">
-        <v>17.37831756263643</v>
+        <v>188.309217543348</v>
       </c>
       <c r="S14">
-        <v>0.004292091742775169</v>
+        <v>0.00486166771388648</v>
       </c>
       <c r="T14">
-        <v>0.004292091742775169</v>
+        <v>0.00486166771388648</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H15">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I15">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J15">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.79093719811019</v>
+        <v>2.796453333333333</v>
       </c>
       <c r="N15">
-        <v>2.79093719811019</v>
+        <v>8.38936</v>
       </c>
       <c r="O15">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758389</v>
       </c>
       <c r="P15">
-        <v>0.07311137863264187</v>
+        <v>0.07100129972758387</v>
       </c>
       <c r="Q15">
-        <v>6.328645606779392</v>
+        <v>7.567674388462223</v>
       </c>
       <c r="R15">
-        <v>6.328645606779392</v>
+        <v>68.10906949616</v>
       </c>
       <c r="S15">
-        <v>0.001563047024195783</v>
+        <v>0.001758403908805517</v>
       </c>
       <c r="T15">
-        <v>0.001563047024195783</v>
+        <v>0.001758403908805517</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H16">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I16">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J16">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.0037300777754</v>
+        <v>25.627053</v>
       </c>
       <c r="N16">
-        <v>25.0037300777754</v>
+        <v>76.881159</v>
       </c>
       <c r="O16">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="P16">
-        <v>0.6549976037377102</v>
+        <v>0.6506649152692259</v>
       </c>
       <c r="Q16">
-        <v>56.69770950666999</v>
+        <v>69.35112784760599</v>
       </c>
       <c r="R16">
-        <v>56.69770950666999</v>
+        <v>624.1601506284539</v>
       </c>
       <c r="S16">
-        <v>0.01400318356082136</v>
+        <v>0.01611423642555552</v>
       </c>
       <c r="T16">
-        <v>0.01400318356082136</v>
+        <v>0.01611423642555552</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.26757005176063</v>
+        <v>2.706168666666667</v>
       </c>
       <c r="H17">
-        <v>2.26757005176063</v>
+        <v>8.118506</v>
       </c>
       <c r="I17">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="J17">
-        <v>0.02137898441293969</v>
+        <v>0.02476579887343077</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.71525572391355</v>
+        <v>3.230753333333334</v>
       </c>
       <c r="N17">
-        <v>2.71525572391355</v>
+        <v>9.692260000000001</v>
       </c>
       <c r="O17">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705974</v>
       </c>
       <c r="P17">
-        <v>0.07112882706565796</v>
+        <v>0.08202807571705972</v>
       </c>
       <c r="Q17">
-        <v>6.157032562417996</v>
+        <v>8.742963440395556</v>
       </c>
       <c r="R17">
-        <v>6.157032562417996</v>
+        <v>78.68667096356</v>
       </c>
       <c r="S17">
-        <v>0.001520662085147384</v>
+        <v>0.002031490825183252</v>
       </c>
       <c r="T17">
-        <v>0.001520662085147384</v>
+        <v>0.002031490825183252</v>
       </c>
     </row>
   </sheetData>
